--- a/CODE/DATA/EURIBOR.xlsx
+++ b/CODE/DATA/EURIBOR.xlsx
@@ -5,806 +5,1561 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasdubois/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasdubois/Desktop/LaTeX/EAP-ML/CODE/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C0E76-FDE5-D546-B8A4-2EE22BB5BC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FCB9B-B8FF-5D42-A002-A9D2E4D6C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="2680" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA(FM)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t>DATE</t>
   </si>
   <si>
+    <t>TIME PERIOD</t>
+  </si>
+  <si>
     <t>OBS.VALUE</t>
   </si>
   <si>
+    <t>2004-12-31</t>
+  </si>
+  <si>
+    <t>Dec 2004</t>
+  </si>
+  <si>
     <t>2005-01-31</t>
   </si>
   <si>
+    <t>Jan 2005</t>
+  </si>
+  <si>
     <t>2005-02-28</t>
   </si>
   <si>
+    <t>Feb 2005</t>
+  </si>
+  <si>
     <t>2005-03-31</t>
   </si>
   <si>
+    <t>Mar 2005</t>
+  </si>
+  <si>
     <t>2005-04-30</t>
   </si>
   <si>
+    <t>Apr 2005</t>
+  </si>
+  <si>
     <t>2005-05-31</t>
   </si>
   <si>
+    <t>May 2005</t>
+  </si>
+  <si>
     <t>2005-06-30</t>
   </si>
   <si>
+    <t>Jun 2005</t>
+  </si>
+  <si>
     <t>2005-07-31</t>
   </si>
   <si>
+    <t>Jul 2005</t>
+  </si>
+  <si>
     <t>2005-08-31</t>
   </si>
   <si>
+    <t>Aug 2005</t>
+  </si>
+  <si>
     <t>2005-09-30</t>
   </si>
   <si>
+    <t>Sep 2005</t>
+  </si>
+  <si>
     <t>2005-10-31</t>
   </si>
   <si>
+    <t>Oct 2005</t>
+  </si>
+  <si>
     <t>2005-11-30</t>
   </si>
   <si>
+    <t>Nov 2005</t>
+  </si>
+  <si>
     <t>2005-12-31</t>
   </si>
   <si>
+    <t>Dec 2005</t>
+  </si>
+  <si>
     <t>2006-01-31</t>
   </si>
   <si>
+    <t>Jan 2006</t>
+  </si>
+  <si>
     <t>2006-02-28</t>
   </si>
   <si>
+    <t>Feb 2006</t>
+  </si>
+  <si>
     <t>2006-03-31</t>
   </si>
   <si>
+    <t>Mar 2006</t>
+  </si>
+  <si>
     <t>2006-04-30</t>
   </si>
   <si>
+    <t>Apr 2006</t>
+  </si>
+  <si>
     <t>2006-05-31</t>
   </si>
   <si>
+    <t>May 2006</t>
+  </si>
+  <si>
     <t>2006-06-30</t>
   </si>
   <si>
+    <t>Jun 2006</t>
+  </si>
+  <si>
     <t>2006-07-31</t>
   </si>
   <si>
+    <t>Jul 2006</t>
+  </si>
+  <si>
     <t>2006-08-31</t>
   </si>
   <si>
+    <t>Aug 2006</t>
+  </si>
+  <si>
     <t>2006-09-30</t>
   </si>
   <si>
+    <t>Sep 2006</t>
+  </si>
+  <si>
     <t>2006-10-31</t>
   </si>
   <si>
+    <t>Oct 2006</t>
+  </si>
+  <si>
     <t>2006-11-30</t>
   </si>
   <si>
+    <t>Nov 2006</t>
+  </si>
+  <si>
     <t>2006-12-31</t>
   </si>
   <si>
+    <t>Dec 2006</t>
+  </si>
+  <si>
     <t>2007-01-31</t>
   </si>
   <si>
+    <t>Jan 2007</t>
+  </si>
+  <si>
     <t>2007-02-28</t>
   </si>
   <si>
+    <t>Feb 2007</t>
+  </si>
+  <si>
     <t>2007-03-31</t>
   </si>
   <si>
+    <t>Mar 2007</t>
+  </si>
+  <si>
     <t>2007-04-30</t>
   </si>
   <si>
+    <t>Apr 2007</t>
+  </si>
+  <si>
     <t>2007-05-31</t>
   </si>
   <si>
+    <t>May 2007</t>
+  </si>
+  <si>
     <t>2007-06-30</t>
   </si>
   <si>
+    <t>Jun 2007</t>
+  </si>
+  <si>
     <t>2007-07-31</t>
   </si>
   <si>
+    <t>Jul 2007</t>
+  </si>
+  <si>
     <t>2007-08-31</t>
   </si>
   <si>
+    <t>Aug 2007</t>
+  </si>
+  <si>
     <t>2007-09-30</t>
   </si>
   <si>
+    <t>Sep 2007</t>
+  </si>
+  <si>
     <t>2007-10-31</t>
   </si>
   <si>
+    <t>Oct 2007</t>
+  </si>
+  <si>
     <t>2007-11-30</t>
   </si>
   <si>
+    <t>Nov 2007</t>
+  </si>
+  <si>
     <t>2007-12-31</t>
   </si>
   <si>
+    <t>Dec 2007</t>
+  </si>
+  <si>
     <t>2008-01-31</t>
   </si>
   <si>
+    <t>Jan 2008</t>
+  </si>
+  <si>
     <t>2008-02-29</t>
   </si>
   <si>
+    <t>Feb 2008</t>
+  </si>
+  <si>
     <t>2008-03-31</t>
   </si>
   <si>
+    <t>Mar 2008</t>
+  </si>
+  <si>
     <t>2008-04-30</t>
   </si>
   <si>
+    <t>Apr 2008</t>
+  </si>
+  <si>
     <t>2008-05-31</t>
   </si>
   <si>
+    <t>May 2008</t>
+  </si>
+  <si>
     <t>2008-06-30</t>
   </si>
   <si>
+    <t>Jun 2008</t>
+  </si>
+  <si>
     <t>2008-07-31</t>
   </si>
   <si>
+    <t>Jul 2008</t>
+  </si>
+  <si>
     <t>2008-08-31</t>
   </si>
   <si>
+    <t>Aug 2008</t>
+  </si>
+  <si>
     <t>2008-09-30</t>
   </si>
   <si>
+    <t>Sep 2008</t>
+  </si>
+  <si>
     <t>2008-10-31</t>
   </si>
   <si>
+    <t>Oct 2008</t>
+  </si>
+  <si>
     <t>2008-11-30</t>
   </si>
   <si>
+    <t>Nov 2008</t>
+  </si>
+  <si>
     <t>2008-12-31</t>
   </si>
   <si>
+    <t>Dec 2008</t>
+  </si>
+  <si>
     <t>2009-01-31</t>
   </si>
   <si>
+    <t>Jan 2009</t>
+  </si>
+  <si>
     <t>2009-02-28</t>
   </si>
   <si>
+    <t>Feb 2009</t>
+  </si>
+  <si>
     <t>2009-03-31</t>
   </si>
   <si>
+    <t>Mar 2009</t>
+  </si>
+  <si>
     <t>2009-04-30</t>
   </si>
   <si>
+    <t>Apr 2009</t>
+  </si>
+  <si>
     <t>2009-05-31</t>
   </si>
   <si>
+    <t>May 2009</t>
+  </si>
+  <si>
     <t>2009-06-30</t>
   </si>
   <si>
+    <t>Jun 2009</t>
+  </si>
+  <si>
     <t>2009-07-31</t>
   </si>
   <si>
+    <t>Jul 2009</t>
+  </si>
+  <si>
     <t>2009-08-31</t>
   </si>
   <si>
+    <t>Aug 2009</t>
+  </si>
+  <si>
     <t>2009-09-30</t>
   </si>
   <si>
+    <t>Sep 2009</t>
+  </si>
+  <si>
     <t>2009-10-31</t>
   </si>
   <si>
+    <t>Oct 2009</t>
+  </si>
+  <si>
     <t>2009-11-30</t>
   </si>
   <si>
+    <t>Nov 2009</t>
+  </si>
+  <si>
     <t>2009-12-31</t>
   </si>
   <si>
+    <t>Dec 2009</t>
+  </si>
+  <si>
     <t>2010-01-31</t>
   </si>
   <si>
+    <t>Jan 2010</t>
+  </si>
+  <si>
     <t>2010-02-28</t>
   </si>
   <si>
+    <t>Feb 2010</t>
+  </si>
+  <si>
     <t>2010-03-31</t>
   </si>
   <si>
+    <t>Mar 2010</t>
+  </si>
+  <si>
     <t>2010-04-30</t>
   </si>
   <si>
+    <t>Apr 2010</t>
+  </si>
+  <si>
     <t>2010-05-31</t>
   </si>
   <si>
+    <t>May 2010</t>
+  </si>
+  <si>
     <t>2010-06-30</t>
   </si>
   <si>
+    <t>Jun 2010</t>
+  </si>
+  <si>
     <t>2010-07-31</t>
   </si>
   <si>
+    <t>Jul 2010</t>
+  </si>
+  <si>
     <t>2010-08-31</t>
   </si>
   <si>
+    <t>Aug 2010</t>
+  </si>
+  <si>
     <t>2010-09-30</t>
   </si>
   <si>
+    <t>Sep 2010</t>
+  </si>
+  <si>
     <t>2010-10-31</t>
   </si>
   <si>
+    <t>Oct 2010</t>
+  </si>
+  <si>
     <t>2010-11-30</t>
   </si>
   <si>
+    <t>Nov 2010</t>
+  </si>
+  <si>
     <t>2010-12-31</t>
   </si>
   <si>
+    <t>Dec 2010</t>
+  </si>
+  <si>
     <t>2011-01-31</t>
   </si>
   <si>
+    <t>Jan 2011</t>
+  </si>
+  <si>
     <t>2011-02-28</t>
   </si>
   <si>
+    <t>Feb 2011</t>
+  </si>
+  <si>
     <t>2011-03-31</t>
   </si>
   <si>
+    <t>Mar 2011</t>
+  </si>
+  <si>
     <t>2011-04-30</t>
   </si>
   <si>
+    <t>Apr 2011</t>
+  </si>
+  <si>
     <t>2011-05-31</t>
   </si>
   <si>
+    <t>May 2011</t>
+  </si>
+  <si>
     <t>2011-06-30</t>
   </si>
   <si>
+    <t>Jun 2011</t>
+  </si>
+  <si>
     <t>2011-07-31</t>
   </si>
   <si>
+    <t>Jul 2011</t>
+  </si>
+  <si>
     <t>2011-08-31</t>
   </si>
   <si>
+    <t>Aug 2011</t>
+  </si>
+  <si>
     <t>2011-09-30</t>
   </si>
   <si>
+    <t>Sep 2011</t>
+  </si>
+  <si>
     <t>2011-10-31</t>
   </si>
   <si>
+    <t>Oct 2011</t>
+  </si>
+  <si>
     <t>2011-11-30</t>
   </si>
   <si>
+    <t>Nov 2011</t>
+  </si>
+  <si>
     <t>2011-12-31</t>
   </si>
   <si>
+    <t>Dec 2011</t>
+  </si>
+  <si>
     <t>2012-01-31</t>
   </si>
   <si>
+    <t>Jan 2012</t>
+  </si>
+  <si>
     <t>2012-02-29</t>
   </si>
   <si>
+    <t>Feb 2012</t>
+  </si>
+  <si>
     <t>2012-03-31</t>
   </si>
   <si>
+    <t>Mar 2012</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
   </si>
   <si>
+    <t>Apr 2012</t>
+  </si>
+  <si>
     <t>2012-05-31</t>
   </si>
   <si>
+    <t>May 2012</t>
+  </si>
+  <si>
     <t>2012-06-30</t>
   </si>
   <si>
+    <t>Jun 2012</t>
+  </si>
+  <si>
     <t>2012-07-31</t>
   </si>
   <si>
+    <t>Jul 2012</t>
+  </si>
+  <si>
     <t>2012-08-31</t>
   </si>
   <si>
+    <t>Aug 2012</t>
+  </si>
+  <si>
     <t>2012-09-30</t>
   </si>
   <si>
+    <t>Sep 2012</t>
+  </si>
+  <si>
     <t>2012-10-31</t>
   </si>
   <si>
+    <t>Oct 2012</t>
+  </si>
+  <si>
     <t>2012-11-30</t>
   </si>
   <si>
+    <t>Nov 2012</t>
+  </si>
+  <si>
     <t>2012-12-31</t>
   </si>
   <si>
+    <t>Dec 2012</t>
+  </si>
+  <si>
     <t>2013-01-31</t>
   </si>
   <si>
+    <t>Jan 2013</t>
+  </si>
+  <si>
     <t>2013-02-28</t>
   </si>
   <si>
+    <t>Feb 2013</t>
+  </si>
+  <si>
     <t>2013-03-31</t>
   </si>
   <si>
+    <t>Mar 2013</t>
+  </si>
+  <si>
     <t>2013-04-30</t>
   </si>
   <si>
+    <t>Apr 2013</t>
+  </si>
+  <si>
     <t>2013-05-31</t>
   </si>
   <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>2013-06-30</t>
   </si>
   <si>
+    <t>Jun 2013</t>
+  </si>
+  <si>
     <t>2013-07-31</t>
   </si>
   <si>
+    <t>Jul 2013</t>
+  </si>
+  <si>
     <t>2013-08-31</t>
   </si>
   <si>
+    <t>Aug 2013</t>
+  </si>
+  <si>
     <t>2013-09-30</t>
   </si>
   <si>
+    <t>Sep 2013</t>
+  </si>
+  <si>
     <t>2013-10-31</t>
   </si>
   <si>
+    <t>Oct 2013</t>
+  </si>
+  <si>
     <t>2013-11-30</t>
   </si>
   <si>
+    <t>Nov 2013</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
   </si>
   <si>
+    <t>Dec 2013</t>
+  </si>
+  <si>
     <t>2014-01-31</t>
   </si>
   <si>
+    <t>Jan 2014</t>
+  </si>
+  <si>
     <t>2014-02-28</t>
   </si>
   <si>
+    <t>Feb 2014</t>
+  </si>
+  <si>
     <t>2014-03-31</t>
   </si>
   <si>
+    <t>Mar 2014</t>
+  </si>
+  <si>
     <t>2014-04-30</t>
   </si>
   <si>
+    <t>Apr 2014</t>
+  </si>
+  <si>
     <t>2014-05-31</t>
   </si>
   <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>2014-06-30</t>
   </si>
   <si>
+    <t>Jun 2014</t>
+  </si>
+  <si>
     <t>2014-07-31</t>
   </si>
   <si>
+    <t>Jul 2014</t>
+  </si>
+  <si>
     <t>2014-08-31</t>
   </si>
   <si>
+    <t>Aug 2014</t>
+  </si>
+  <si>
     <t>2014-09-30</t>
   </si>
   <si>
+    <t>Sep 2014</t>
+  </si>
+  <si>
     <t>2014-10-31</t>
   </si>
   <si>
+    <t>Oct 2014</t>
+  </si>
+  <si>
     <t>2014-11-30</t>
   </si>
   <si>
+    <t>Nov 2014</t>
+  </si>
+  <si>
     <t>2014-12-31</t>
   </si>
   <si>
+    <t>Dec 2014</t>
+  </si>
+  <si>
     <t>2015-01-31</t>
   </si>
   <si>
+    <t>Jan 2015</t>
+  </si>
+  <si>
     <t>2015-02-28</t>
   </si>
   <si>
+    <t>Feb 2015</t>
+  </si>
+  <si>
     <t>2015-03-31</t>
   </si>
   <si>
+    <t>Mar 2015</t>
+  </si>
+  <si>
     <t>2015-04-30</t>
   </si>
   <si>
+    <t>Apr 2015</t>
+  </si>
+  <si>
     <t>2015-05-31</t>
   </si>
   <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>2015-06-30</t>
   </si>
   <si>
+    <t>Jun 2015</t>
+  </si>
+  <si>
     <t>2015-07-31</t>
   </si>
   <si>
+    <t>Jul 2015</t>
+  </si>
+  <si>
     <t>2015-08-31</t>
   </si>
   <si>
+    <t>Aug 2015</t>
+  </si>
+  <si>
     <t>2015-09-30</t>
   </si>
   <si>
+    <t>Sep 2015</t>
+  </si>
+  <si>
     <t>2015-10-31</t>
   </si>
   <si>
+    <t>Oct 2015</t>
+  </si>
+  <si>
     <t>2015-11-30</t>
   </si>
   <si>
+    <t>Nov 2015</t>
+  </si>
+  <si>
     <t>2015-12-31</t>
   </si>
   <si>
+    <t>Dec 2015</t>
+  </si>
+  <si>
     <t>2016-01-31</t>
   </si>
   <si>
+    <t>Jan 2016</t>
+  </si>
+  <si>
     <t>2016-02-29</t>
   </si>
   <si>
+    <t>Feb 2016</t>
+  </si>
+  <si>
     <t>2016-03-31</t>
   </si>
   <si>
+    <t>Mar 2016</t>
+  </si>
+  <si>
     <t>2016-04-30</t>
   </si>
   <si>
+    <t>Apr 2016</t>
+  </si>
+  <si>
     <t>2016-05-31</t>
   </si>
   <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>2016-06-30</t>
   </si>
   <si>
+    <t>Jun 2016</t>
+  </si>
+  <si>
     <t>2016-07-31</t>
   </si>
   <si>
+    <t>Jul 2016</t>
+  </si>
+  <si>
     <t>2016-08-31</t>
   </si>
   <si>
+    <t>Aug 2016</t>
+  </si>
+  <si>
     <t>2016-09-30</t>
   </si>
   <si>
+    <t>Sep 2016</t>
+  </si>
+  <si>
     <t>2016-10-31</t>
   </si>
   <si>
+    <t>Oct 2016</t>
+  </si>
+  <si>
     <t>2016-11-30</t>
   </si>
   <si>
+    <t>Nov 2016</t>
+  </si>
+  <si>
     <t>2016-12-31</t>
   </si>
   <si>
+    <t>Dec 2016</t>
+  </si>
+  <si>
     <t>2017-01-31</t>
   </si>
   <si>
+    <t>Jan 2017</t>
+  </si>
+  <si>
     <t>2017-02-28</t>
   </si>
   <si>
+    <t>Feb 2017</t>
+  </si>
+  <si>
     <t>2017-03-31</t>
   </si>
   <si>
+    <t>Mar 2017</t>
+  </si>
+  <si>
     <t>2017-04-30</t>
   </si>
   <si>
+    <t>Apr 2017</t>
+  </si>
+  <si>
     <t>2017-05-31</t>
   </si>
   <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>2017-06-30</t>
   </si>
   <si>
+    <t>Jun 2017</t>
+  </si>
+  <si>
     <t>2017-07-31</t>
   </si>
   <si>
+    <t>Jul 2017</t>
+  </si>
+  <si>
     <t>2017-08-31</t>
   </si>
   <si>
+    <t>Aug 2017</t>
+  </si>
+  <si>
     <t>2017-09-30</t>
   </si>
   <si>
+    <t>Sep 2017</t>
+  </si>
+  <si>
     <t>2017-10-31</t>
   </si>
   <si>
+    <t>Oct 2017</t>
+  </si>
+  <si>
     <t>2017-11-30</t>
   </si>
   <si>
+    <t>Nov 2017</t>
+  </si>
+  <si>
     <t>2017-12-31</t>
   </si>
   <si>
+    <t>Dec 2017</t>
+  </si>
+  <si>
     <t>2018-01-31</t>
   </si>
   <si>
+    <t>Jan 2018</t>
+  </si>
+  <si>
     <t>2018-02-28</t>
   </si>
   <si>
+    <t>Feb 2018</t>
+  </si>
+  <si>
     <t>2018-03-31</t>
   </si>
   <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
     <t>2018-04-30</t>
   </si>
   <si>
+    <t>Apr 2018</t>
+  </si>
+  <si>
     <t>2018-05-31</t>
   </si>
   <si>
+    <t>May 2018</t>
+  </si>
+  <si>
     <t>2018-06-30</t>
   </si>
   <si>
+    <t>Jun 2018</t>
+  </si>
+  <si>
     <t>2018-07-31</t>
   </si>
   <si>
+    <t>Jul 2018</t>
+  </si>
+  <si>
     <t>2018-08-31</t>
   </si>
   <si>
+    <t>Aug 2018</t>
+  </si>
+  <si>
     <t>2018-09-30</t>
   </si>
   <si>
+    <t>Sep 2018</t>
+  </si>
+  <si>
     <t>2018-10-31</t>
   </si>
   <si>
+    <t>Oct 2018</t>
+  </si>
+  <si>
     <t>2018-11-30</t>
   </si>
   <si>
+    <t>Nov 2018</t>
+  </si>
+  <si>
     <t>2018-12-31</t>
   </si>
   <si>
+    <t>Dec 2018</t>
+  </si>
+  <si>
     <t>2019-01-31</t>
   </si>
   <si>
+    <t>Jan 2019</t>
+  </si>
+  <si>
     <t>2019-02-28</t>
   </si>
   <si>
+    <t>Feb 2019</t>
+  </si>
+  <si>
     <t>2019-03-31</t>
   </si>
   <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
     <t>2019-04-30</t>
   </si>
   <si>
+    <t>Apr 2019</t>
+  </si>
+  <si>
     <t>2019-05-31</t>
   </si>
   <si>
+    <t>May 2019</t>
+  </si>
+  <si>
     <t>2019-06-30</t>
   </si>
   <si>
+    <t>Jun 2019</t>
+  </si>
+  <si>
     <t>2019-07-31</t>
   </si>
   <si>
+    <t>Jul 2019</t>
+  </si>
+  <si>
     <t>2019-08-31</t>
   </si>
   <si>
+    <t>Aug 2019</t>
+  </si>
+  <si>
     <t>2019-09-30</t>
   </si>
   <si>
+    <t>Sep 2019</t>
+  </si>
+  <si>
     <t>2019-10-31</t>
   </si>
   <si>
+    <t>Oct 2019</t>
+  </si>
+  <si>
     <t>2019-11-30</t>
   </si>
   <si>
+    <t>Nov 2019</t>
+  </si>
+  <si>
     <t>2019-12-31</t>
   </si>
   <si>
+    <t>Dec 2019</t>
+  </si>
+  <si>
     <t>2020-01-31</t>
   </si>
   <si>
+    <t>Jan 2020</t>
+  </si>
+  <si>
     <t>2020-02-29</t>
   </si>
   <si>
+    <t>Feb 2020</t>
+  </si>
+  <si>
     <t>2020-03-31</t>
   </si>
   <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
+    <t>Apr 2020</t>
+  </si>
+  <si>
     <t>2020-05-31</t>
   </si>
   <si>
+    <t>May 2020</t>
+  </si>
+  <si>
     <t>2020-06-30</t>
   </si>
   <si>
+    <t>Jun 2020</t>
+  </si>
+  <si>
     <t>2020-07-31</t>
   </si>
   <si>
+    <t>Jul 2020</t>
+  </si>
+  <si>
     <t>2020-08-31</t>
   </si>
   <si>
+    <t>Aug 2020</t>
+  </si>
+  <si>
     <t>2020-09-30</t>
   </si>
   <si>
+    <t>Sep 2020</t>
+  </si>
+  <si>
     <t>2020-10-31</t>
   </si>
   <si>
+    <t>Oct 2020</t>
+  </si>
+  <si>
     <t>2020-11-30</t>
   </si>
   <si>
+    <t>Nov 2020</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
+    <t>Dec 2020</t>
+  </si>
+  <si>
     <t>2021-01-31</t>
   </si>
   <si>
+    <t>Jan 2021</t>
+  </si>
+  <si>
     <t>2021-02-28</t>
   </si>
   <si>
+    <t>Feb 2021</t>
+  </si>
+  <si>
     <t>2021-03-31</t>
   </si>
   <si>
+    <t>Mar 2021</t>
+  </si>
+  <si>
     <t>2021-04-30</t>
   </si>
   <si>
+    <t>Apr 2021</t>
+  </si>
+  <si>
     <t>2021-05-31</t>
   </si>
   <si>
+    <t>May 2021</t>
+  </si>
+  <si>
     <t>2021-06-30</t>
   </si>
   <si>
+    <t>Jun 2021</t>
+  </si>
+  <si>
     <t>2021-07-31</t>
   </si>
   <si>
+    <t>Jul 2021</t>
+  </si>
+  <si>
     <t>2021-08-31</t>
   </si>
   <si>
+    <t>Aug 2021</t>
+  </si>
+  <si>
     <t>2021-09-30</t>
   </si>
   <si>
+    <t>Sep 2021</t>
+  </si>
+  <si>
     <t>2021-10-31</t>
   </si>
   <si>
+    <t>Oct 2021</t>
+  </si>
+  <si>
     <t>2021-11-30</t>
   </si>
   <si>
+    <t>Nov 2021</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
+    <t>Dec 2021</t>
+  </si>
+  <si>
     <t>2022-01-31</t>
   </si>
   <si>
+    <t>Jan 2022</t>
+  </si>
+  <si>
     <t>2022-02-28</t>
   </si>
   <si>
+    <t>Feb 2022</t>
+  </si>
+  <si>
     <t>2022-03-31</t>
   </si>
   <si>
+    <t>Mar 2022</t>
+  </si>
+  <si>
     <t>2022-04-30</t>
   </si>
   <si>
+    <t>Apr 2022</t>
+  </si>
+  <si>
     <t>2022-05-31</t>
   </si>
   <si>
+    <t>May 2022</t>
+  </si>
+  <si>
     <t>2022-06-30</t>
   </si>
   <si>
+    <t>Jun 2022</t>
+  </si>
+  <si>
     <t>2022-07-31</t>
   </si>
   <si>
+    <t>Jul 2022</t>
+  </si>
+  <si>
     <t>2022-08-31</t>
   </si>
   <si>
+    <t>Aug 2022</t>
+  </si>
+  <si>
     <t>2022-09-30</t>
   </si>
   <si>
+    <t>Sep 2022</t>
+  </si>
+  <si>
     <t>2022-10-31</t>
   </si>
   <si>
+    <t>Oct 2022</t>
+  </si>
+  <si>
     <t>2022-11-30</t>
   </si>
   <si>
+    <t>Nov 2022</t>
+  </si>
+  <si>
     <t>2022-12-31</t>
   </si>
   <si>
+    <t>Dec 2022</t>
+  </si>
+  <si>
     <t>2023-01-31</t>
   </si>
   <si>
+    <t>Jan 2023</t>
+  </si>
+  <si>
     <t>2023-02-28</t>
   </si>
   <si>
+    <t>Feb 2023</t>
+  </si>
+  <si>
     <t>2023-03-31</t>
   </si>
   <si>
+    <t>Mar 2023</t>
+  </si>
+  <si>
     <t>2023-04-30</t>
   </si>
   <si>
+    <t>Apr 2023</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
+    <t>May 2023</t>
+  </si>
+  <si>
     <t>2023-06-30</t>
   </si>
   <si>
+    <t>Jun 2023</t>
+  </si>
+  <si>
     <t>2023-07-31</t>
   </si>
   <si>
+    <t>Jul 2023</t>
+  </si>
+  <si>
     <t>2023-08-31</t>
   </si>
   <si>
+    <t>Aug 2023</t>
+  </si>
+  <si>
     <t>2023-09-30</t>
   </si>
   <si>
+    <t>Sep 2023</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>Oct 2023</t>
+  </si>
+  <si>
     <t>2023-11-30</t>
   </si>
   <si>
+    <t>Nov 2023</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
     <t>2024-01-31</t>
   </si>
   <si>
+    <t>Jan 2024</t>
+  </si>
+  <si>
     <t>2024-02-29</t>
   </si>
   <si>
+    <t>Feb 2024</t>
+  </si>
+  <si>
     <t>2024-03-31</t>
   </si>
   <si>
+    <t>Mar 2024</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
+    <t>Apr 2024</t>
+  </si>
+  <si>
     <t>2024-05-31</t>
   </si>
   <si>
+    <t>May 2024</t>
+  </si>
+  <si>
     <t>2024-06-30</t>
   </si>
   <si>
+    <t>Jun 2024</t>
+  </si>
+  <si>
     <t>2024-07-31</t>
   </si>
   <si>
+    <t>Jul 2024</t>
+  </si>
+  <si>
     <t>2024-08-31</t>
   </si>
   <si>
+    <t>Aug 2024</t>
+  </si>
+  <si>
     <t>2024-09-30</t>
   </si>
   <si>
+    <t>Sep 2024</t>
+  </si>
+  <si>
     <t>2024-10-31</t>
   </si>
   <si>
+    <t>Oct 2024</t>
+  </si>
+  <si>
     <t>2024-11-30</t>
   </si>
   <si>
+    <t>Nov 2024</t>
+  </si>
+  <si>
     <t>2024-12-31</t>
   </si>
   <si>
+    <t>Dec 2024</t>
+  </si>
+  <si>
     <t>2025-01-31</t>
   </si>
   <si>
+    <t>Jan 2025</t>
+  </si>
+  <si>
     <t>2025-02-28</t>
   </si>
   <si>
+    <t>Feb 2025</t>
+  </si>
+  <si>
     <t>2025-03-31</t>
   </si>
   <si>
+    <t>Mar 2025</t>
+  </si>
+  <si>
     <t>2025-04-30</t>
   </si>
   <si>
+    <t>Apr 2025</t>
+  </si>
+  <si>
     <t>2025-05-31</t>
   </si>
   <si>
+    <t>May 2025</t>
+  </si>
+  <si>
     <t>2025-06-30</t>
   </si>
   <si>
+    <t>Jun 2025</t>
+  </si>
+  <si>
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>Jul 2025</t>
+  </si>
+  <si>
     <t>2025-08-31</t>
   </si>
   <si>
+    <t>Aug 2025</t>
+  </si>
+  <si>
     <t>2025-09-30</t>
   </si>
   <si>
+    <t>Sep 2025</t>
+  </si>
+  <si>
     <t>2025-10-31</t>
   </si>
   <si>
+    <t>Oct 2025</t>
+  </si>
+  <si>
     <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>Nov 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -839,10 +1594,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,2031 +1933,2794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2.1669999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>2.1038999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>2.1046999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>2.1040999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
         <v>2.1038999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>2.1063999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>2.1126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>2.1152000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>2.1208999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>2.2225000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>2.4112</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <v>2.3885000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
         <v>2.4586000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>2.6333000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
         <v>2.6488999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
         <v>2.6926000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
         <v>2.8691</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
         <v>2.9388999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
         <v>3.0941000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
         <v>3.1572</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
         <v>3.3500999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>3.4214000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
         <v>3.64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
         <v>3.6158999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
         <v>3.6511</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
         <v>3.8439000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
         <v>3.859</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
         <v>3.9194</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
         <v>4.0982000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
         <v>4.1050000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
         <v>4.3080999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
         <v>4.4339000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
         <v>4.2355</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
         <v>4.2160000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
         <v>4.7114000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
         <v>4.1973000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
         <v>4.1821000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
         <v>4.3045999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
         <v>4.3691000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
         <v>4.3874000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
         <v>4.4724000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
         <v>4.4715999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
         <v>4.4874999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47">
         <v>4.6599000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
         <v>4.8312999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49">
         <v>3.8433000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
         <v>2.9929000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51">
         <v>2.1417999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52">
         <v>1.6283000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53">
         <v>1.2690999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54">
         <v>1.0121</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55">
         <v>0.88439999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
         <v>0.91339999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57">
         <v>0.60970000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58">
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59">
         <v>0.4551</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
         <v>0.42970000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61">
         <v>0.43519999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62">
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63">
         <v>0.437</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64">
         <v>0.4214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65">
         <v>0.40620000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66">
         <v>0.4047</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67">
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68">
         <v>0.44640000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69">
         <v>0.58330000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70">
         <v>0.64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71">
         <v>0.61809999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72">
         <v>0.78420000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73">
         <v>0.83389999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74">
         <v>0.81069999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75">
         <v>0.79279999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76">
         <v>0.89370000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77">
         <v>0.90310000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78">
         <v>1.1271</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79">
         <v>1.2434000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80">
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81">
         <v>1.4218</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82">
         <v>1.3734</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83">
         <v>1.3472</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84">
         <v>1.3634999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85">
         <v>1.2265999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86">
         <v>1.143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87">
         <v>0.83620000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88">
         <v>0.626</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
         <v>0.46739999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90">
         <v>0.4088</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91">
         <v>0.39379999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92">
         <v>0.38</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93">
         <v>0.21940000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94">
         <v>0.13159999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95">
         <v>0.1188</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96">
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97">
         <v>0.1085</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98">
         <v>0.1106</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99">
         <v>0.1125</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100">
         <v>0.1203</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101">
         <v>0.1179</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102">
         <v>0.1179</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103">
         <v>0.1123</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104">
         <v>0.1206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105">
         <v>0.125</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106">
         <v>0.1278</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107">
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108">
         <v>0.1283</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110">
         <v>0.21440000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111">
         <v>0.22420000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112">
         <v>0.22389999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113">
         <v>0.23180000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114">
         <v>0.25259999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115">
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116">
         <v>0.15290000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117">
         <v>9.5799999999999996E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118">
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119">
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125">
         <v>-1.03E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127">
         <v>-4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128">
         <v>-6.3399999999999998E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129">
         <v>-7.1300000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130">
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131">
         <v>-0.1052</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132">
         <v>-0.11559999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133">
         <v>-0.14030000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134">
         <v>-0.1895</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135">
         <v>-0.22259999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136">
         <v>-0.246</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137">
         <v>-0.30759999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138">
         <v>-0.3412</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139">
         <v>-0.34799999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140">
         <v>-0.35589999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141">
         <v>-0.36880000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142">
         <v>-0.36969999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143">
         <v>-0.37140000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144">
         <v>-0.37140000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145">
         <v>-0.37280000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146">
         <v>-0.37040000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147">
         <v>-0.37130000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148">
         <v>-0.37180000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149">
         <v>-0.37240000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150">
         <v>-0.37240000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151">
         <v>-0.37319999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152">
         <v>-0.37280000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153">
         <v>-0.37280000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154">
         <v>-0.372</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" t="s">
+        <v>310</v>
+      </c>
+      <c r="C155">
         <v>-0.37209999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>312</v>
+      </c>
+      <c r="C156">
         <v>-0.37230000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157">
         <v>-0.37159999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158">
         <v>-0.36870000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159">
         <v>-0.36880000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160">
         <v>-0.36959999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>322</v>
+      </c>
+      <c r="C161">
         <v>-0.37059999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" t="s">
+        <v>324</v>
+      </c>
+      <c r="C162">
         <v>-0.37169999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
+        <v>326</v>
+      </c>
+      <c r="C163">
         <v>-0.37080000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" t="s">
+        <v>328</v>
+      </c>
+      <c r="C164">
         <v>-0.37030000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165">
         <v>-0.36969999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>331</v>
+      </c>
+      <c r="B166" t="s">
+        <v>332</v>
+      </c>
+      <c r="C166">
         <v>-0.36959999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>333</v>
+      </c>
+      <c r="B167" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167">
         <v>-0.371</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" t="s">
+        <v>336</v>
+      </c>
+      <c r="C168">
         <v>-0.36969999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>337</v>
+      </c>
+      <c r="B169" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169">
         <v>-0.36880000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170">
         <v>-0.36709999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>341</v>
+      </c>
+      <c r="B171" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171">
         <v>-0.3664</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C172">
         <v>-0.36770000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173">
         <v>-0.36749999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174">
         <v>-0.36730000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175">
         <v>-0.36899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" t="s">
+        <v>352</v>
+      </c>
+      <c r="C176">
         <v>-0.38479999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177">
         <v>-0.39510000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178">
         <v>-0.40960000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" t="s">
+        <v>358</v>
+      </c>
+      <c r="C179">
         <v>-0.44819999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180">
         <v>-0.45550000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>180</v>
-      </c>
-      <c r="B180">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" t="s">
+        <v>364</v>
+      </c>
+      <c r="C182">
         <v>-0.45290000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183">
         <v>-0.45689999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184">
         <v>-0.47310000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185">
         <v>-0.47770000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186">
         <v>-0.42809999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" t="s">
+        <v>374</v>
+      </c>
+      <c r="C187">
         <v>-0.46429999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188">
         <v>-0.4929</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189">
         <v>-0.50880000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190">
         <v>-0.51729999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191">
         <v>-0.52170000000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192">
         <v>-0.53849999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>385</v>
+      </c>
+      <c r="B193" t="s">
+        <v>386</v>
+      </c>
+      <c r="C193">
         <v>-0.54139999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194">
         <v>-0.56069999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" t="s">
+        <v>390</v>
+      </c>
+      <c r="C195">
         <v>-0.56210000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" t="s">
+        <v>392</v>
+      </c>
+      <c r="C196">
         <v>-0.5534</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197">
         <v>-0.5534</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198">
         <v>-0.55500000000000005</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" t="s">
+        <v>398</v>
+      </c>
+      <c r="C199">
         <v>-0.55789999999999995</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>399</v>
+      </c>
+      <c r="B200" t="s">
+        <v>400</v>
+      </c>
+      <c r="C200">
         <v>-0.55459999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" t="s">
+        <v>402</v>
+      </c>
+      <c r="C201">
         <v>-0.55620000000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202">
         <v>-0.56010000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" t="s">
+        <v>406</v>
+      </c>
+      <c r="C203">
         <v>-0.55759999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" t="s">
+        <v>408</v>
+      </c>
+      <c r="C204">
         <v>-0.56040000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" t="s">
+        <v>410</v>
+      </c>
+      <c r="C205">
         <v>-0.56540000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" t="s">
+        <v>412</v>
+      </c>
+      <c r="C206">
         <v>-0.59630000000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
+      </c>
+      <c r="C207">
         <v>-0.56489999999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>415</v>
+      </c>
+      <c r="B208" t="s">
+        <v>416</v>
+      </c>
+      <c r="C208">
         <v>-0.55310000000000004</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>417</v>
+      </c>
+      <c r="B209" t="s">
+        <v>418</v>
+      </c>
+      <c r="C209">
         <v>-0.5444</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>419</v>
+      </c>
+      <c r="B210" t="s">
+        <v>420</v>
+      </c>
+      <c r="C210">
         <v>-0.5373</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>421</v>
+      </c>
+      <c r="B211" t="s">
+        <v>422</v>
+      </c>
+      <c r="C211">
         <v>-0.54569999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" t="s">
+        <v>424</v>
+      </c>
+      <c r="C212">
         <v>-0.52470000000000006</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" t="s">
+        <v>426</v>
+      </c>
+      <c r="C213">
         <v>-0.30640000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" t="s">
+        <v>428</v>
+      </c>
+      <c r="C214">
         <v>2.24E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" t="s">
+        <v>430</v>
+      </c>
+      <c r="C215">
         <v>0.57389999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" t="s">
+        <v>432</v>
+      </c>
+      <c r="C216">
         <v>0.91520000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" t="s">
+        <v>434</v>
+      </c>
+      <c r="C217">
         <v>1.4231</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" t="s">
+        <v>436</v>
+      </c>
+      <c r="C218">
         <v>1.7242999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>437</v>
+      </c>
+      <c r="B219" t="s">
+        <v>438</v>
+      </c>
+      <c r="C219">
         <v>1.9812000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>439</v>
+      </c>
+      <c r="B220" t="s">
+        <v>440</v>
+      </c>
+      <c r="C220">
         <v>2.3687999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>441</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221">
         <v>2.7099000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222">
         <v>2.9535999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>446</v>
+      </c>
+      <c r="C223">
         <v>3.1474000000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>447</v>
+      </c>
+      <c r="B224" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224">
         <v>3.3424999999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>449</v>
+      </c>
+      <c r="B225" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225">
         <v>3.4689999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>451</v>
+      </c>
+      <c r="B226" t="s">
+        <v>452</v>
+      </c>
+      <c r="C226">
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>453</v>
+      </c>
+      <c r="B227" t="s">
+        <v>454</v>
+      </c>
+      <c r="C227">
         <v>3.7576999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>455</v>
+      </c>
+      <c r="B228" t="s">
+        <v>456</v>
+      </c>
+      <c r="C228">
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>457</v>
+      </c>
+      <c r="B229" t="s">
+        <v>458</v>
+      </c>
+      <c r="C229">
         <v>3.8407</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>459</v>
+      </c>
+      <c r="B230" t="s">
+        <v>460</v>
+      </c>
+      <c r="C230">
         <v>3.8593999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>461</v>
+      </c>
+      <c r="B231" t="s">
+        <v>462</v>
+      </c>
+      <c r="C231">
         <v>3.8690000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>463</v>
+      </c>
+      <c r="B232" t="s">
+        <v>464</v>
+      </c>
+      <c r="C232">
         <v>3.8685</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>465</v>
+      </c>
+      <c r="B233" t="s">
+        <v>466</v>
+      </c>
+      <c r="C233">
         <v>3.8521000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="B233">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>467</v>
+      </c>
+      <c r="B234" t="s">
+        <v>468</v>
+      </c>
+      <c r="C234">
         <v>3.8517000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>469</v>
+      </c>
+      <c r="B235" t="s">
+        <v>470</v>
+      </c>
+      <c r="C235">
         <v>3.8176999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>471</v>
+      </c>
+      <c r="B236" t="s">
+        <v>472</v>
+      </c>
+      <c r="C236">
         <v>3.6347</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>473</v>
+      </c>
+      <c r="B237" t="s">
+        <v>474</v>
+      </c>
+      <c r="C237">
         <v>3.6175000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>475</v>
+      </c>
+      <c r="B238" t="s">
+        <v>476</v>
+      </c>
+      <c r="C238">
         <v>3.5966999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>477</v>
+      </c>
+      <c r="B239" t="s">
+        <v>478</v>
+      </c>
+      <c r="C239">
         <v>3.4380999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>479</v>
+      </c>
+      <c r="B240" t="s">
+        <v>480</v>
+      </c>
+      <c r="C240">
         <v>3.2054999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>481</v>
+      </c>
+      <c r="B241" t="s">
+        <v>482</v>
+      </c>
+      <c r="C241">
         <v>3.0663999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>483</v>
+      </c>
+      <c r="B242" t="s">
+        <v>484</v>
+      </c>
+      <c r="C242">
         <v>2.8860000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>485</v>
+      </c>
+      <c r="B243" t="s">
+        <v>486</v>
+      </c>
+      <c r="C243">
         <v>2.7951000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>487</v>
+      </c>
+      <c r="B244" t="s">
+        <v>488</v>
+      </c>
+      <c r="C244">
         <v>2.6057999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>489</v>
+      </c>
+      <c r="B245" t="s">
+        <v>490</v>
+      </c>
+      <c r="C245">
         <v>2.4009999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>245</v>
-      </c>
-      <c r="B245">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>491</v>
+      </c>
+      <c r="B246" t="s">
+        <v>492</v>
+      </c>
+      <c r="C246">
         <v>2.2387000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>246</v>
-      </c>
-      <c r="B246">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>493</v>
+      </c>
+      <c r="B247" t="s">
+        <v>494</v>
+      </c>
+      <c r="C247">
         <v>2.0969000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>247</v>
-      </c>
-      <c r="B247">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>495</v>
+      </c>
+      <c r="B248" t="s">
+        <v>496</v>
+      </c>
+      <c r="C248">
         <v>1.9285000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>248</v>
-      </c>
-      <c r="B248">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>497</v>
+      </c>
+      <c r="B249" t="s">
+        <v>498</v>
+      </c>
+      <c r="C249">
         <v>1.8923000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>249</v>
-      </c>
-      <c r="B249">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>499</v>
+      </c>
+      <c r="B250" t="s">
+        <v>500</v>
+      </c>
+      <c r="C250">
         <v>1.89</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>250</v>
-      </c>
-      <c r="B250">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>501</v>
+      </c>
+      <c r="B251" t="s">
+        <v>502</v>
+      </c>
+      <c r="C251">
         <v>1.8972</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>251</v>
-      </c>
-      <c r="B251">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>503</v>
+      </c>
+      <c r="B252" t="s">
+        <v>504</v>
+      </c>
+      <c r="C252">
         <v>1.9063000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>505</v>
+      </c>
+      <c r="B253" t="s">
+        <v>506</v>
+      </c>
+      <c r="C253">
         <v>1.9056</v>
       </c>
     </row>
